--- a/data/trans_dic/P16A15-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,69</t>
+          <t>3,82; 8,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,42; 12,58</t>
+          <t>6,35; 12,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,05; 11,9</t>
+          <t>6,1; 11,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,54; 14,47</t>
+          <t>9,37; 14,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,36; 7,38</t>
+          <t>2,33; 7,66</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,3; 8,84</t>
+          <t>3,29; 8,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 7,2</t>
+          <t>2,36; 7,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,36; 13,15</t>
+          <t>8,55; 13,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,14</t>
+          <t>3,7; 7,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,72; 10,05</t>
+          <t>5,66; 9,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 8,59</t>
+          <t>4,7; 8,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,54; 12,93</t>
+          <t>9,67; 13,02</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 8,11</t>
+          <t>3,49; 8,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,32; 12,25</t>
+          <t>6,64; 12,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,63; 11,51</t>
+          <t>5,63; 11,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,15; 16,88</t>
+          <t>11,07; 17,11</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,38</t>
+          <t>1,56; 5,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,03; 9,99</t>
+          <t>4,2; 10,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 9,73</t>
+          <t>3,87; 9,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,18; 11,76</t>
+          <t>7,2; 11,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>2,87; 5,81</t>
+          <t>2,81; 5,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 10,27</t>
+          <t>6,06; 10,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 9,29</t>
+          <t>5,44; 9,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,85; 13,85</t>
+          <t>9,86; 13,73</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 8,15</t>
+          <t>3,9; 7,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,19; 14,73</t>
+          <t>9,41; 14,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,02; 14,44</t>
+          <t>8,83; 14,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 15,84</t>
+          <t>3,27; 15,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,54; 11,53</t>
+          <t>3,52; 11,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,98; 12,05</t>
+          <t>5,33; 12,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,81; 19,48</t>
+          <t>7,64; 19,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,97; 21,71</t>
+          <t>12,76; 20,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 7,84</t>
+          <t>4,34; 7,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>8,56; 13,2</t>
+          <t>8,81; 13,26</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,37; 14,35</t>
+          <t>9,37; 14,49</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 16,12</t>
+          <t>4,45; 16,21</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,05; 8,95</t>
+          <t>6,12; 9,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,1; 14,22</t>
+          <t>10,17; 14,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,74; 12,08</t>
+          <t>8,58; 12,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,01; 15,91</t>
+          <t>12,1; 16,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 7,52</t>
+          <t>4,31; 7,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,0; 10,46</t>
+          <t>6,11; 10,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,13; 8,81</t>
+          <t>5,07; 8,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,25; 64,52</t>
+          <t>10,24; 62,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,83; 8,15</t>
+          <t>5,84; 7,94</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,92; 11,91</t>
+          <t>9,11; 12,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,5; 10,06</t>
+          <t>7,66; 10,09</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,22; 42,65</t>
+          <t>12,2; 46,72</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,28</t>
+          <t>2,89; 7,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,82; 14,53</t>
+          <t>8,92; 14,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,03; 14,0</t>
+          <t>8,89; 13,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>9,93; 15,14</t>
+          <t>9,53; 15,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,89; 10,31</t>
+          <t>5,91; 10,5</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,84; 18,24</t>
+          <t>12,43; 18,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,22; 16,6</t>
+          <t>10,82; 16,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,52; 20,36</t>
+          <t>12,86; 20,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,17; 8,55</t>
+          <t>5,05; 8,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>11,85; 15,87</t>
+          <t>11,9; 16,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,67; 14,43</t>
+          <t>10,84; 14,47</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,68; 17,42</t>
+          <t>12,77; 17,21</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1425,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,65</t>
+          <t>0,29; 2,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1434,52 +1435,52 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,97</t>
+          <t>0,0; 2,88</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,48</t>
+          <t>0,61; 3,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,95; 13,37</t>
+          <t>9,82; 13,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,53; 20,36</t>
+          <t>15,46; 20,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,95; 18,56</t>
+          <t>13,66; 18,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,03; 19,09</t>
+          <t>14,96; 19,41</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,99; 11,04</t>
+          <t>8,04; 11,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,7; 16,45</t>
+          <t>12,81; 16,76</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,99; 14,97</t>
+          <t>11,11; 14,99</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,65; 15,13</t>
+          <t>11,67; 14,97</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,03; 6,57</t>
+          <t>4,97; 6,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,18; 11,33</t>
+          <t>9,16; 11,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,5; 10,41</t>
+          <t>8,51; 10,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,05; 13,0</t>
+          <t>9,07; 13,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,07; 8,92</t>
+          <t>6,92; 8,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>11,16; 13,54</t>
+          <t>11,18; 13,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,92; 12,12</t>
+          <t>9,95; 12,08</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,47; 33,86</t>
+          <t>13,55; 33,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,22; 7,46</t>
+          <t>6,29; 7,5</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>10,57; 12,09</t>
+          <t>10,5; 12,08</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>9,5; 11,01</t>
+          <t>9,5; 11,02</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>12,4; 25,0</t>
+          <t>12,39; 22,88</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>27077</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>39363</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>36571</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>59764</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13988</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17636</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>14918</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>46976</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>41065</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>56999</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>51489</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>106739</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>18104; 38742</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>27723; 54291</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>26194; 50247</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>47314; 74228</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>7135; 23484</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>10339; 28060</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8187; 25816</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>38277; 58992</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>28913; 56491</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>42528; 74077</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>36465; 67392</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>92102; 124057</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>19861</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>38035</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>30924</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>62667</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11172</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22083</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23460</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>35541</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>31033</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>60118</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>54384</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>98208</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12807; 30323</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>27683; 52512</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>21250; 43344</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>50063; 77367</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>5802; 19559</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14083; 34170</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14400; 35511</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>27530; 44710</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>20771; 43413</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>45580; 77053</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>40742; 70787</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>82335; 114578</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>30318</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>74055</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>59797</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>63795</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>10994</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>20952</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>20914</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>27620</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>41312</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>95007</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>80711</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>91415</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>21127; 42055</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>59146; 92842</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>46064; 74847</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>21877; 106085</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5910; 18950</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>13746; 33174</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>12695; 32284</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>21304; 34462</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>30856; 55148</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>78059; 117533</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>64462; 99692</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>37136; 135419</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>93326</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>138894</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>118417</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>144714</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>41525</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>61734</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>55461</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>287807</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>134851</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>200628</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>173879</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>432521</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>75768; 111518</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>117754; 163218</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>98605; 141574</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>125198; 166189</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>30750; 53760</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>46830; 79429</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>41847; 70451</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>100128; 611136</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>114069; 155101</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>175288; 231508</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>151235; 199342</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>245574; 940145</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16254</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>58719</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>70452</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>57448</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>44597</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>115130</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>99532</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>145586</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>60851</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>173849</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>169984</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>203034</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>10107; 24615</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>45524; 74352</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>55157; 85581</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>45154; 71777</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>33640; 59730</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>94273; 137192</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>79865; 120127</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>107905; 169537</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>46386; 76424</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>150991; 203422</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>147309; 196614</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>167660; 225949</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2899</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2922</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2402</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3654</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>144486</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>198032</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>173627</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>129274</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>147384</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>200955</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>176029</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>132928</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>878; 8496</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10742</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 8279</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1469; 8199</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>122614; 166422</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>171044; 223794</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>147783; 200224</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>113732; 147533</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>124318; 171656</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>175808; 229953</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>152164; 205183</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>116793; 149773</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>932</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>716</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>654</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1478</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>189734</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>351988</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>318563</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>392041</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>266762</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>435567</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>387912</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>672804</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>456496</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>787555</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>706475</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1064845</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>162631; 217863</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>313100; 391299</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>288285; 354139</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>306014; 439828</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>233841; 300449</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>395630; 475938</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>351381; 426558</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>484184; 1210637</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>417975; 498433</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>730485; 839948</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>656883; 762422</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>860897; 1590199</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16A15-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A15-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
